--- a/python/vk.xlsx
+++ b/python/vk.xlsx
@@ -1468,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1480,10 +1480,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="4" style="1" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="3.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="4" style="1" width="21.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
